--- a/com.automationpractice/src/test/resources/test_data.xlsx
+++ b/com.automationpractice/src/test/resources/test_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
